--- a/player-analysis/server/customer_model_data/life_cycle.csv.xlsx
+++ b/player-analysis/server/customer_model_data/life_cycle.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>distribution</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -75,12 +72,15 @@
   </si>
   <si>
     <t>Dormant</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
@@ -113,12 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,38 +438,38 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -478,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>54728</v>
+        <v>47728</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -493,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>0.53959999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,22 +503,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>11970</v>
+        <v>642</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="F3" s="3">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G3" s="2">
-        <v>0.01</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,22 +526,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>81612</v>
+        <v>2947</v>
       </c>
       <c r="D4">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="F4" s="3">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,22 +549,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>12898</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1113</v>
+        <v>725</v>
       </c>
       <c r="F5" s="3">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G5" s="2">
-        <v>0.01</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,22 +572,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>7129</v>
+        <v>1407</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>525</v>
+        <v>772</v>
       </c>
       <c r="F6" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G6" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,22 +595,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>10802</v>
+        <v>1394</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="F7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G7" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,22 +618,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>302192</v>
+        <v>12501</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="F8" s="3">
         <v>0.41</v>
       </c>
       <c r="G8" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.14130000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>755072</v>
+        <v>21774</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -651,24 +653,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="2">
-        <v>0.61099999999999999</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>54728</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>49682</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -677,168 +679,168 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.5494</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>769</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>11970</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4">
-        <v>230</v>
+      <c r="E11" s="6">
+        <v>235</v>
       </c>
       <c r="F11" s="3">
         <v>0.66</v>
       </c>
       <c r="G11" s="2">
-        <v>0.01</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>81612</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3305</v>
       </c>
       <c r="D12">
-        <v>273</v>
-      </c>
-      <c r="E12" s="4">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>565</v>
       </c>
       <c r="F12" s="3">
         <v>0.12</v>
       </c>
       <c r="G12" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>12898</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>116</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1113</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>718</v>
       </c>
       <c r="F13" s="3">
         <v>0.03</v>
       </c>
       <c r="G13" s="2">
-        <v>0.01</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>7129</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>557</v>
       </c>
       <c r="D14">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4">
-        <v>525</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>864</v>
       </c>
       <c r="F14" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>10802</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1138</v>
       </c>
       <c r="D15">
-        <v>89</v>
-      </c>
-      <c r="E15" s="4">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>188</v>
       </c>
       <c r="F15" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>1.26E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>302192</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>174</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>26</v>
       </c>
       <c r="F16" s="3">
         <v>0.41</v>
       </c>
       <c r="G16" s="2">
-        <v>0.24399999999999999</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>34730</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>755072</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0.41</v>
       </c>
       <c r="G17" s="2">
-        <v>0.61099999999999999</v>
+        <v>0.3841</v>
       </c>
     </row>
   </sheetData>
